--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 2nd Marination Popcorn.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 2nd Marination Popcorn.xlsx
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>0.28</v>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>0.28</v>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0.12</v>
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0.7</v>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1.22</v>
@@ -550,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1.2</v>
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D9">
         <v>0.04615384615384616</v>
@@ -592,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>2.6</v>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>0.027</v>
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>0.045</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0.21</v>
@@ -651,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>0.7</v>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>0.4</v>
@@ -679,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="D16">
         <v>0.283</v>

--- a/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 2nd Marination Popcorn.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Recipes_tmp/1500_gm_Fried Chicken 2nd Marination Popcorn.xlsx
@@ -471,7 +471,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>0.28</v>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>106.6666666666667</v>
       </c>
       <c r="D3">
         <v>0.28</v>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>53.33333333333333</v>
       </c>
       <c r="D4">
         <v>0.12</v>
@@ -522,7 +522,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>26.66666666666666</v>
       </c>
       <c r="D5">
         <v>0.7</v>
@@ -536,7 +536,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>1.22</v>
@@ -550,7 +550,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D7">
         <v>1.2</v>
@@ -564,7 +564,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -578,7 +578,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="D9">
         <v>0.04615384615384616</v>
@@ -592,7 +592,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D10">
         <v>2.6</v>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>0.027</v>
@@ -623,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0.045</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>0.21</v>
@@ -651,7 +651,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D14">
         <v>0.7</v>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D15">
         <v>0.4</v>
@@ -679,7 +679,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D16">
         <v>0.283</v>
